--- a/Documentation/Bruson_Pricing_VK.xlsx
+++ b/Documentation/Bruson_Pricing_VK.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicky.kosambiya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rajesh Hugar_OneDrive_Data\OneDrive - Course5 Intelligence Limited\2025\aramco-chat-bot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56921D8D-9B84-4F15-B887-0A7D767633F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{56921D8D-9B84-4F15-B887-0A7D767633F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1974682D-44D7-446E-8A18-BA0DB34993CC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alerts" sheetId="1" r:id="rId1"/>
-    <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="108">
   <si>
     <t>News API</t>
   </si>
@@ -133,9 +134,6 @@
     <t>https://groq.com/pricing/</t>
   </si>
   <si>
-    <t>To analyse around 800 articles per month</t>
-  </si>
-  <si>
     <t>Resource</t>
   </si>
   <si>
@@ -199,9 +197,6 @@
     <t>$33–$58+</t>
   </si>
   <si>
-    <t>Per message (Rs. 0.7846)</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -218,13 +213,185 @@
   </si>
   <si>
     <t>Considered 1000-2000 messages per month and data around 100 GB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Per message (Rs. 0.7846)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000 messages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To analyse around </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> articles per month</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.mongodb.com/pricing?utm_source=google&amp;utm_campaign=search_gs_pl_evergreen_atlas_core-high-int_prosp-brand_gic-null_apac-in_ps-all_desktop_eng_lead&amp;utm_term=atlasmongo&amp;utm_medium=cpc_paid_search&amp;utm_ad=p&amp;utm_ad_campaign_id=19617021259&amp;adgroup=173739098353&amp;cq_cmp=19617021259&amp;gad_source=1&amp;gclid=Cj0KCQjwm7q-BhDRARIsACD6-fXAgOiGXHeVcR62rbGeQXn2CGgrQRO6m6prUDeJRa8PQ5ND7xJbM1oaAkZqEALw_wcB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pay per use </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Storage </t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>AWS Service</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Monthly Cost (Est.)</t>
+  </si>
+  <si>
+    <t>Data Collector</t>
+  </si>
+  <si>
+    <t>Serverless functions to fetch data from social platforms and news sources</t>
+  </si>
+  <si>
+    <t>$100-$200</t>
+  </si>
+  <si>
+    <t>External API Access</t>
+  </si>
+  <si>
+    <t>API Gateway</t>
+  </si>
+  <si>
+    <t>Managed service for creating and managing APIs</t>
+  </si>
+  <si>
+    <t>$50-$100</t>
+  </si>
+  <si>
+    <t>Primary Database</t>
+  </si>
+  <si>
+    <t>Amazon DynamoDB</t>
+  </si>
+  <si>
+    <t>NoSQL database for storing collected data</t>
+  </si>
+  <si>
+    <t>$150-$300</t>
+  </si>
+  <si>
+    <t>Alert Processing</t>
+  </si>
+  <si>
+    <t>Functions for alert triggering and processing</t>
+  </si>
+  <si>
+    <t>Message Formatting</t>
+  </si>
+  <si>
+    <t>Functions to prepare notification content</t>
+  </si>
+  <si>
+    <t>WhatsApp Integration</t>
+  </si>
+  <si>
+    <t>Amazon SNS</t>
+  </si>
+  <si>
+    <t>Notification service with WhatsApp channel integration</t>
+  </si>
+  <si>
+    <t>Logs Storage</t>
+  </si>
+  <si>
+    <t>Amazon CloudWatch + S3</t>
+  </si>
+  <si>
+    <t>Monitoring and long-term storage of logs</t>
+  </si>
+  <si>
+    <t>Orchestration</t>
+  </si>
+  <si>
+    <t>AWS Step Functions</t>
+  </si>
+  <si>
+    <t>Coordination of the entire workflow</t>
+  </si>
+  <si>
+    <t>Total Estimated Cost</t>
+  </si>
+  <si>
+    <t>$1,000-$2,000/month</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Fixed/Variable</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Per message (Rs. 0.7846)  2000 messages</t>
+  </si>
+  <si>
+    <t>To analyse around 2000 articles per month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,8 +430,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +464,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -461,11 +672,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -480,10 +708,58 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -492,7 +768,33 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -508,16 +810,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,9 +832,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -560,6 +857,90 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -845,43 +1226,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" zoomScale="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
-    <col min="9" max="9" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="9" t="s">
+    <row r="3" spans="3:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
@@ -892,19 +1273,19 @@
         <v>7</v>
       </c>
       <c r="F5" s="1">
-        <v>449</v>
+        <v>250</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>59</v>
+      <c r="H5" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
@@ -915,19 +1296,19 @@
         <v>11</v>
       </c>
       <c r="F6" s="1">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>60</v>
+      <c r="H6" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
@@ -938,19 +1319,20 @@
         <v>17</v>
       </c>
       <c r="F7" s="1">
-        <v>8.9999999999999993E-3</v>
+        <f>2000*0.009</f>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>60</v>
+      <c r="H7" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
@@ -966,14 +1348,14 @@
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
@@ -984,19 +1366,19 @@
         <v>22</v>
       </c>
       <c r="F9" s="1">
-        <v>0.2</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>60</v>
+      <c r="H9" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1007,91 +1389,125 @@
         <v>29</v>
       </c>
       <c r="F10" s="1">
-        <v>2.2999999999999998</v>
+        <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>60</v>
+      <c r="H10" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C11" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="30">
         <v>245</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="14" t="s">
+      <c r="G11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="32"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="25">
+        <v>30</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C13" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="30">
         <v>60</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="15" t="s">
+      <c r="G13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="E14" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="33">
+        <f>SUM(F5:F10,F12:F13)</f>
+        <v>537.70000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15">
+        <f>SUM(F5:F13)-F13</f>
+        <v>722.7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="17" spans="3:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="12">
+        <f>F14</f>
+        <v>537.70000000000005</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C18" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="17">
-        <f>449+49+9+0.2+2.3+245+0.48</f>
-        <v>754.98</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="17">
+      <c r="D18" s="12">
         <f>(449+49+9+0.2+2.3+245+0.48)*12</f>
         <v>9059.76</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1105,114 +1521,727 @@
     <hyperlink ref="E10" r:id="rId6" xr:uid="{82D1202A-C5F9-4381-9ABD-F76EEE0A033C}"/>
     <hyperlink ref="E11" r:id="rId7" xr:uid="{905CBBB4-4A4F-4C21-8D7E-C9A64EC554E0}"/>
     <hyperlink ref="E12" r:id="rId8" xr:uid="{388044A9-E406-4897-91C5-A7CAB1937E81}"/>
+    <hyperlink ref="E13" r:id="rId9" display="https://www.mongodb.com/pricing?utm_source=google&amp;utm_campaign=search_gs_pl_evergreen_atlas_core-high-int_prosp-brand_gic-null_apac-in_ps-all_desktop_eng_lead&amp;utm_term=atlasmongo&amp;utm_medium=cpc_paid_search&amp;utm_ad=p&amp;utm_ad_campaign_id=19617021259&amp;adgroup=173739098353&amp;cq_cmp=19617021259&amp;gad_source=1&amp;gclid=Cj0KCQjwm7q-BhDRARIsACD6-fXAgOiGXHeVcR62rbGeQXn2CGgrQRO6m6prUDeJRa8PQ5ND7xJbM1oaAkZqEALw_wcB" xr:uid="{9401EC9F-0E73-4425-B20A-E429725B6849}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61D6709-CA36-4FB7-87A6-EFE91B9D63B3}">
-  <dimension ref="D4:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803D9F7F-7D18-4645-9209-E9686B4104A0}">
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A25" zoomScale="87" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" customWidth="1"/>
+    <col min="7" max="7" width="21.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="19" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="55"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="39">
+        <v>250</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="39">
+        <v>150</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="39">
+        <f>2000*0.009</f>
+        <v>18</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="39">
+        <v>20</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="39">
+        <v>4</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="41">
+        <v>60</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="39">
+        <v>30</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D22">
+        <f>SUM(D15:D21)</f>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="30">
+        <v>245</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="32"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="34" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="50">
+        <v>250</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="37">
+        <v>150</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="37">
+        <v>18</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="37">
+        <v>20</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="37">
+        <v>4</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="37">
+        <v>60</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="47">
+        <v>30</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C27" r:id="rId1" xr:uid="{BD98CB47-F3E6-43B0-8430-D77BA0F2736E}"/>
+    <hyperlink ref="C26" r:id="rId2" xr:uid="{18537F42-65A4-4EBF-B937-5D125474F6EF}"/>
+    <hyperlink ref="C20" r:id="rId3" display="https://www.mongodb.com/pricing?utm_source=google&amp;utm_campaign=search_gs_pl_evergreen_atlas_core-high-int_prosp-brand_gic-null_apac-in_ps-all_desktop_eng_lead&amp;utm_term=atlasmongo&amp;utm_medium=cpc_paid_search&amp;utm_ad=p&amp;utm_ad_campaign_id=19617021259&amp;adgroup=173739098353&amp;cq_cmp=19617021259&amp;gad_source=1&amp;gclid=Cj0KCQjwm7q-BhDRARIsACD6-fXAgOiGXHeVcR62rbGeQXn2CGgrQRO6m6prUDeJRa8PQ5ND7xJbM1oaAkZqEALw_wcB" xr:uid="{3173652F-7AF2-4BEE-A452-2FBA39C315E9}"/>
+    <hyperlink ref="C21" r:id="rId4" xr:uid="{B053837A-07DA-4102-8D26-F353366CFAD8}"/>
+    <hyperlink ref="C19" r:id="rId5" xr:uid="{44817C67-E5E8-4690-AD6D-D3F2544466C5}"/>
+    <hyperlink ref="C18" r:id="rId6" display="https://aws.amazon.com/pm/lambda/?gclid=EAIaIQobChMIuu-X2I7eiwMVGMQ8Ah3wUjIZEAAYASAAEgJMt_D_BwE&amp;trk=5cc83e4b-8a6e-4976-92ff-7a6198f2fe76&amp;sc_channel=ps&amp;ef_id=EAIaIQobChMIuu-X2I7eiwMVGMQ8Ah3wUjIZEAAYASAAEgJMt_D_BwE:G:s&amp;s_kwcid=AL!4422!3!651612776786!p!!g!!lambda!19828229697!143940519581" xr:uid="{42FB522E-4CBA-46BB-A380-ECF626EEBAE5}"/>
+    <hyperlink ref="C17" r:id="rId7" xr:uid="{7A72FFFF-7797-42F2-9ABB-992CC61E8738}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{67D95A89-8040-4DE2-8780-F65A20F00061}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{06E221E2-4987-4354-ADBE-D6FC1B76BF10}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61D6709-CA36-4FB7-87A6-EFE91B9D63B3}">
+  <dimension ref="D4:F13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="69" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="28.86328125" customWidth="1"/>
+    <col min="5" max="5" width="20.73046875" customWidth="1"/>
+    <col min="6" max="6" width="18.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="21" t="s">
+    </row>
+    <row r="6" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D6" s="17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="23" t="s">
+    </row>
+    <row r="7" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D7" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="22" t="s">
+      <c r="E7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="23" t="s">
+    </row>
+    <row r="8" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D8" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="22" t="s">
+      <c r="E8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="23" t="s">
+    </row>
+    <row r="9" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D9" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="22" t="s">
+      <c r="E9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="23" t="s">
+    </row>
+    <row r="10" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D10" s="17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="22" t="s">
+      <c r="E10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="22" t="s">
+      <c r="E11" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="23" t="s">
+    </row>
+    <row r="12" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D12" s="19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="24" t="s">
+      <c r="E12" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="F12" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>56</v>
+    </row>
+    <row r="13" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E13">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
